--- a/Classification_model/classification_nets_v2.xlsx
+++ b/Classification_model/classification_nets_v2.xlsx
@@ -563,259 +563,263 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>38</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>4</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[14, 23, 4]</t>
+          <t>[17, 17, 4]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>&lt;bound method Module.parameters of Net(
   (linears): ModuleList(
-    (0): Linear(in_features=25, out_features=14, bias=True)
-    (1): Linear(in_features=14, out_features=23, bias=True)
+    (0): Linear(in_features=61, out_features=17, bias=True)
+    (1): Linear(in_features=17, out_features=17, bias=True)
+    (2): Linear(in_features=17, out_features=4, bias=True)
+    (3): Linear(in_features=4, out_features=4, bias=True)
+  )
+)&gt;</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>0.062</v>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="I2" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J2" t="n">
+        <v>14600</v>
+      </c>
+      <c r="K2" t="n">
+        <v>36.3636360168457</v>
+      </c>
+      <c r="L2" t="n">
+        <v>44.63866806030273</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-0.04680719809631941</v>
+      </c>
+      <c r="N2" t="n">
+        <v>22.72727203369141</v>
+      </c>
+      <c r="O2" t="n">
+        <v>41.54055404663086</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-0.1395203607573562</v>
+      </c>
+      <c r="Q2" t="inlineStr">
+        <is>
+          <t>[[1 2 0 1]
+ [0 5 3 0]
+ [1 1 1 3]
+ [3 0 0 1]]</t>
+        </is>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>[[25.         50.          0.         25.        ]
+ [ 0.         62.5        37.5         0.        ]
+ [16.66666667 16.66666667 16.66666667 50.        ]
+ [75.          0.          0.         25.        ]]</t>
+        </is>
+      </c>
+      <c r="S2" t="n">
+        <v>30.43478202819824</v>
+      </c>
+      <c r="T2" t="n">
+        <v>45.51433944702148</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0.1637546236785805</v>
+      </c>
+      <c r="V2" t="inlineStr">
+        <is>
+          <t>[3 2 2 0 0 0 0 2 1 1 2 1 2 1 1 1 3 2 3 2 2 0 3 2 3 3 3 3 3 3 2 2 0 1 3 2 1
+ 2 0 2 0 1 1 1 1 0]</t>
+        </is>
+      </c>
+      <c r="W2" t="inlineStr">
+        <is>
+          <t>[[2 2 2 1]
+ [1 2 3 1]
+ [4 5 5 4]
+ [2 3 4 5]]</t>
+        </is>
+      </c>
+      <c r="X2" t="inlineStr">
+        <is>
+          <t>[[28.57142857 28.57142857 28.57142857 14.28571429]
+ [14.28571429 28.57142857 42.85714286 14.28571429]
+ [22.22222222 27.77777778 27.77777778 22.22222222]
+ [14.28571429 21.42857143 28.57142857 35.71428571]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>00001</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>32</v>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>[13, 20, 4]</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>&lt;bound method Module.parameters of Net(
+  (linears): ModuleList(
+    (0): Linear(in_features=61, out_features=13, bias=True)
+    (1): Linear(in_features=13, out_features=20, bias=True)
+    (2): Linear(in_features=20, out_features=4, bias=True)
+    (3): Linear(in_features=4, out_features=4, bias=True)
+  )
+)&gt;</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>CrossEntropyLoss</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Adam</t>
+        </is>
+      </c>
+      <c r="I3" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J3" t="n">
+        <v>800</v>
+      </c>
+      <c r="K3" t="n">
+        <v>31.81818199157715</v>
+      </c>
+      <c r="L3" t="n">
+        <v>16.99634170532227</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0.2669760912458984</v>
+      </c>
+      <c r="N3" t="n">
+        <v>22.72727203369141</v>
+      </c>
+      <c r="O3" t="n">
+        <v>12.29185390472412</v>
+      </c>
+      <c r="P3" t="n">
+        <v>-0.02305239719346671</v>
+      </c>
+      <c r="Q3" t="inlineStr">
+        <is>
+          <t>[[3 0 1 1]
+ [4 2 1 3]
+ [3 0 0 1]
+ [0 0 1 2]]</t>
+        </is>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>[[60.          0.         20.         20.        ]
+ [40.         20.         10.         30.        ]
+ [75.          0.          0.         25.        ]
+ [ 0.          0.         33.33333333 66.66666667]]</t>
+        </is>
+      </c>
+      <c r="S3" t="n">
+        <v>26.08695602416992</v>
+      </c>
+      <c r="T3" t="n">
+        <v>33.51064300537109</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0.164661573396644</v>
+      </c>
+      <c r="V3" t="inlineStr">
+        <is>
+          <t>[2 0 1 0 0 2 0 0 2 3 1 2 0 0 1 2 0 3 1 0 3 1 3 3 3 0 3 1 3 3 3 3 0 3 1 2 0
+ 0 1 2 0 0 3 0 2 0]</t>
+        </is>
+      </c>
+      <c r="W3" t="inlineStr">
+        <is>
+          <t>[[5 1 0 1]
+ [3 0 2 2]
+ [5 2 4 7]
+ [4 5 2 3]]</t>
+        </is>
+      </c>
+      <c r="X3" t="inlineStr">
+        <is>
+          <t>[[71.42857143 14.28571429  0.         14.28571429]
+ [42.85714286  0.         28.57142857 28.57142857]
+ [27.77777778 11.11111111 22.22222222 38.88888889]
+ [28.57142857 35.71428571 14.28571429 21.42857143]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>00002</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>18</v>
+      </c>
+      <c r="C4" t="n">
+        <v>4</v>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[4, 23, 4]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>&lt;bound method Module.parameters of Net(
+  (linears): ModuleList(
+    (0): Linear(in_features=61, out_features=4, bias=True)
+    (1): Linear(in_features=4, out_features=23, bias=True)
     (2): Linear(in_features=23, out_features=4, bias=True)
     (3): Linear(in_features=4, out_features=4, bias=True)
   )
 )&gt;</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>CrossEntropyLoss</t>
         </is>
       </c>
-      <c r="G2" t="n">
-        <v>0.017</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>50000</v>
-      </c>
-      <c r="J2" t="n">
-        <v>23700</v>
-      </c>
-      <c r="K2" t="n">
-        <v>66</v>
-      </c>
-      <c r="L2" t="n">
-        <v>12.98222064971924</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.4540571594577337</v>
-      </c>
-      <c r="N2" t="n">
-        <v>13</v>
-      </c>
-      <c r="O2" t="n">
-        <v>48.6929931640625</v>
-      </c>
-      <c r="P2" t="n">
-        <v>-0.2127178149057585</v>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>[[4 1 1 0]
- [0 2 1 0]
- [0 0 3 0]
- [1 1 0 1]]</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>[[ 66.66666667  16.66666667  16.66666667   0.        ]
- [  0.          66.66666667  33.33333333   0.        ]
- [  0.           0.         100.           0.        ]
- [ 33.33333333  33.33333333   0.          33.33333333]]</t>
-        </is>
-      </c>
-      <c r="S2" t="n">
-        <v>22</v>
-      </c>
-      <c r="T2" t="n">
-        <v>44.92282104492188</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.1966432512796497</v>
-      </c>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t>[2 1 3 1 2 1 2 1 1 1 1 3 2 1 0 2 0 2 2 3 0 3 3 3 2 2 1 1 3 0 1 1 0 0 3 2 0
- 2 3 1 1 1 2 1 2 2 1 2 3 0 0 1 2 1 3 1 2 0 3 1 2 1 2]</t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>[[6 9 3 5]
- [3 3 7 2]
- [1 6 3 3]
- [0 4 6 2]]</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>[[26.08695652 39.13043478 13.04347826 21.73913043]
- [20.         20.         46.66666667 13.33333333]
- [ 7.69230769 46.15384615 23.07692308 23.07692308]
- [ 0.         33.33333333 50.         16.66666667]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>00001</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>44</v>
-      </c>
-      <c r="C3" t="n">
-        <v>4</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>[11, 12, 4]</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>&lt;bound method Module.parameters of Net(
-  (linears): ModuleList(
-    (0): Linear(in_features=25, out_features=11, bias=True)
-    (1): Linear(in_features=11, out_features=12, bias=True)
-    (2): Linear(in_features=12, out_features=4, bias=True)
-    (3): Linear(in_features=4, out_features=4, bias=True)
-  )
-)&gt;</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>CrossEntropyLoss</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>0.034</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Adam</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="J3" t="n">
-        <v>50000</v>
-      </c>
-      <c r="K3" t="n">
-        <v>33</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.388716340065002</v>
-      </c>
-      <c r="M3" t="inlineStr"/>
-      <c r="N3" t="n">
-        <v>33</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1.388716340065002</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>[[0 3 0 0]
- [0 5 0 0]
- [0 2 0 0]
- [0 5 0 0]]</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>[[  0. 100.   0.   0.]
- [  0. 100.   0.   0.]
- [  0. 100.   0.   0.]
- [  0. 100.   0.   0.]]</t>
-        </is>
-      </c>
-      <c r="S3" t="n">
-        <v>23</v>
-      </c>
-      <c r="T3" t="n">
-        <v>1.427480578422546</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.1242886442399762</v>
-      </c>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t>[1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 3 1
- 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 1 3 1 1 1 1 1 1 1 1]</t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>[[ 0 23  0  0]
- [ 0 14  0  1]
- [ 0 13  0  0]
- [ 0 11  0  1]]</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>[[  0.         100.           0.           0.        ]
- [  0.          93.33333333   0.           6.66666667]
- [  0.         100.           0.           0.        ]
- [  0.          91.66666667   0.           8.33333333]]</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>00002</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>6</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4</v>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[6, 8, 4]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>&lt;bound method Module.parameters of Net(
-  (linears): ModuleList(
-    (0): Linear(in_features=25, out_features=6, bias=True)
-    (1): Linear(in_features=6, out_features=8, bias=True)
-    (2): Linear(in_features=8, out_features=4, bias=True)
-    (3): Linear(in_features=4, out_features=4, bias=True)
-  )
-)&gt;</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>CrossEntropyLoss</t>
-        </is>
-      </c>
       <c r="G4" t="n">
-        <v>0.008999999999999999</v>
+        <v>0.021</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -829,25 +833,25 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>40</v>
+        <v>31.81818199157715</v>
       </c>
       <c r="L4" t="n">
-        <v>1.333457589149475</v>
+        <v>1.389937281608582</v>
       </c>
       <c r="M4" t="inlineStr"/>
       <c r="N4" t="n">
-        <v>40</v>
+        <v>31.81818199157715</v>
       </c>
       <c r="O4" t="n">
-        <v>1.330297231674194</v>
+        <v>1.390329837799072</v>
       </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[[6 0 0 0]
- [1 0 0 0]
+          <t>[[7 0 0 0]
  [5 0 0 0]
- [3 0 0 0]]</t>
+ [6 0 0 0]
+ [4 0 0 0]]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -859,34 +863,32 @@
         </is>
       </c>
       <c r="S4" t="n">
-        <v>36</v>
+        <v>15.21739101409912</v>
       </c>
       <c r="T4" t="n">
-        <v>1.372726440429688</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.2226996670415223</v>
-      </c>
+        <v>1.497231006622314</v>
+      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="inlineStr">
         <is>
-          <t>[0 0 2 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 2 0
- 0 0 0 0 0 2 0 0 0 0 2 0 0 0 0 0 0 0 2 0 0 0 0 0 0 0]</t>
+          <t>[0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0 0
+ 0 0 0 0 0 0 0 0 0]</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>[[22  0  1  0]
- [14  0  1  0]
- [12  0  1  0]
- [ 9  0  3  0]]</t>
+          <t>[[ 7  0  0  0]
+ [ 7  0  0  0]
+ [18  0  0  0]
+ [14  0  0  0]]</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>[[95.65217391  0.          4.34782609  0.        ]
- [93.33333333  0.          6.66666667  0.        ]
- [92.30769231  0.          7.69230769  0.        ]
- [75.          0.         25.          0.        ]]</t>
+          <t>[[100.   0.   0.   0.]
+ [100.   0.   0.   0.]
+ [100.   0.   0.   0.]
+ [100.   0.   0.   0.]]</t>
         </is>
       </c>
     </row>
@@ -897,23 +899,23 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[22, 11, 4]</t>
+          <t>[3, 1, 4]</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>&lt;bound method Module.parameters of Net(
   (linears): ModuleList(
-    (0): Linear(in_features=25, out_features=22, bias=True)
-    (1): Linear(in_features=22, out_features=11, bias=True)
-    (2): Linear(in_features=11, out_features=4, bias=True)
+    (0): Linear(in_features=61, out_features=3, bias=True)
+    (1): Linear(in_features=3, out_features=1, bias=True)
+    (2): Linear(in_features=1, out_features=4, bias=True)
     (3): Linear(in_features=4, out_features=4, bias=True)
   )
 )&gt;</t>
@@ -925,7 +927,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>0.078</v>
+        <v>0.098</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
@@ -936,71 +938,71 @@
         <v>50000</v>
       </c>
       <c r="J5" t="n">
-        <v>600</v>
+        <v>10600</v>
       </c>
       <c r="K5" t="n">
-        <v>33</v>
+        <v>31.81818199157715</v>
       </c>
       <c r="L5" t="n">
-        <v>48.87882232666016</v>
+        <v>58.99013519287109</v>
       </c>
       <c r="M5" t="n">
-        <v>0.2156143862717941</v>
+        <v>0.2370530007395865</v>
       </c>
       <c r="N5" t="n">
-        <v>13</v>
+        <v>31.81818199157715</v>
       </c>
       <c r="O5" t="n">
-        <v>56.45080184936523</v>
+        <v>38.21407318115234</v>
       </c>
       <c r="P5" t="n">
-        <v>0.1055609636211734</v>
+        <v>0.005943962929568448</v>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[[0 1 1 1]
- [0 2 0 3]
- [0 2 1 2]
- [0 0 0 2]]</t>
+          <t>[[0 4 1 0]
+ [0 5 1 1]
+ [0 4 1 2]
+ [0 2 0 1]]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[[  0.          33.33333333  33.33333333  33.33333333]
- [  0.          40.           0.          60.        ]
- [  0.          40.          20.          40.        ]
- [  0.           0.           0.         100.        ]]</t>
+          <t>[[ 0.         80.         20.          0.        ]
+ [ 0.         71.42857143 14.28571429 14.28571429]
+ [ 0.         57.14285714 14.28571429 28.57142857]
+ [ 0.         66.66666667  0.         33.33333333]]</t>
         </is>
       </c>
       <c r="S5" t="n">
-        <v>25</v>
+        <v>19.56521797180176</v>
       </c>
       <c r="T5" t="n">
-        <v>30.8088207244873</v>
+        <v>12.94741916656494</v>
       </c>
       <c r="U5" t="n">
-        <v>-0.01546494063715026</v>
+        <v>-0.1514854640055893</v>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>[1 1 1 1 1 1 1 1 1 3 1 1 1 1 1 3 1 1 1 3 2 1 1 2 1 1 1 1 2 1 1 2 1 1 1 1 1
- 1 2 1 3 1 2 1 1 1 2 1 3 2 2 1 1 1 1 1 1 1 3 1 3 2 3]</t>
+          <t>[3 1 3 1 1 1 1 1 1 2 3 1 2 1 1 1 1 1 1 1 2 1 1 3 3 3 1 2 1 3 1 1 1 1 3 1 1
+ 1 1 2 2 1 1 2 1 1]</t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>[[ 0 14  6  3]
- [ 0 13  0  2]
- [ 0 11  1  1]
- [ 0  7  3  2]]</t>
+          <t>[[ 0  4  1  2]
+ [ 0  5  1  1]
+ [ 0 11  3  4]
+ [ 0 11  2  1]]</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>[[ 0.         60.86956522 26.08695652 13.04347826]
- [ 0.         86.66666667  0.         13.33333333]
- [ 0.         84.61538462  7.69230769  7.69230769]
- [ 0.         58.33333333 25.         16.66666667]]</t>
+          <t>[[ 0.         57.14285714 14.28571429 28.57142857]
+ [ 0.         71.42857143 14.28571429 14.28571429]
+ [ 0.         61.11111111 16.66666667 22.22222222]
+ [ 0.         78.57142857 14.28571429  7.14285714]]</t>
         </is>
       </c>
     </row>
@@ -1011,23 +1013,23 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[8, 17, 4]</t>
+          <t>[8, 13, 4]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>&lt;bound method Module.parameters of Net(
   (linears): ModuleList(
-    (0): Linear(in_features=25, out_features=8, bias=True)
-    (1): Linear(in_features=8, out_features=17, bias=True)
-    (2): Linear(in_features=17, out_features=4, bias=True)
+    (0): Linear(in_features=61, out_features=8, bias=True)
+    (1): Linear(in_features=8, out_features=13, bias=True)
+    (2): Linear(in_features=13, out_features=4, bias=True)
     (3): Linear(in_features=4, out_features=4, bias=True)
   )
 )&gt;</t>
@@ -1039,7 +1041,7 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>0.062</v>
+        <v>0.082</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
@@ -1050,71 +1052,71 @@
         <v>50000</v>
       </c>
       <c r="J6" t="n">
-        <v>2500</v>
+        <v>15100</v>
       </c>
       <c r="K6" t="n">
-        <v>40</v>
+        <v>36.3636360168457</v>
       </c>
       <c r="L6" t="n">
-        <v>1.200957894325256</v>
+        <v>12.20492649078369</v>
       </c>
       <c r="M6" t="n">
-        <v>0.3995796110241593</v>
+        <v>0.4239721860880529</v>
       </c>
       <c r="N6" t="n">
-        <v>20</v>
+        <v>31.81818199157715</v>
       </c>
       <c r="O6" t="n">
-        <v>149.9268341064453</v>
+        <v>6.860580921173096</v>
       </c>
       <c r="P6" t="n">
-        <v>-0.01817881366751492</v>
+        <v>0.1794315424512774</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[[2 0 0 4]
- [0 1 0 2]
- [0 0 0 3]
- [0 0 0 3]]</t>
+          <t>[[3 0 3 1]
+ [0 1 3 1]
+ [0 2 2 2]
+ [0 0 2 2]]</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[[ 33.33333333   0.           0.          66.66666667]
- [  0.          33.33333333   0.          66.66666667]
- [  0.           0.           0.         100.        ]
- [  0.           0.           0.         100.        ]]</t>
+          <t>[[42.85714286  0.         42.85714286 14.28571429]
+ [ 0.         20.         60.         20.        ]
+ [ 0.         33.33333333 33.33333333 33.33333333]
+ [ 0.          0.         50.         50.        ]]</t>
         </is>
       </c>
       <c r="S6" t="n">
-        <v>22</v>
+        <v>32.60869598388672</v>
       </c>
       <c r="T6" t="n">
-        <v>13.29186344146729</v>
+        <v>23.47916221618652</v>
       </c>
       <c r="U6" t="n">
-        <v>0.07283399867152471</v>
+        <v>0.15142766790106</v>
       </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t>[3 3 3 0 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 3 0 3 0 3 3 3 0 3 3 3 3 3 1 0 1 3 3
- 3 3 3 3 3 3 0 3 3 0 3 3 3 3 1 3 3 3 3 3 3 3 3 2 3 3]</t>
+          <t>[2 0 2 2 1 2 0 0 0 3 3 0 2 0 0 1 2 2 2 2 1 2 3 2 2 2 0 2 2 3 3 3 1 0 2 3 0
+ 2 2 3 3 0 0 2 0 2]</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>[[ 4  0  0 19]
- [ 2  0  0 13]
- [ 1  2  0 10]
- [ 0  1  1 10]]</t>
+          <t>[[2 1 2 2]
+ [4 1 2 0]
+ [4 1 9 4]
+ [3 1 7 3]]</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>[[17.39130435  0.          0.         82.60869565]
- [13.33333333  0.          0.         86.66666667]
- [ 7.69230769 15.38461538  0.         76.92307692]
- [ 0.          8.33333333  8.33333333 83.33333333]]</t>
+          <t>[[28.57142857 14.28571429 28.57142857 28.57142857]
+ [57.14285714 14.28571429 28.57142857  0.        ]
+ [22.22222222  5.55555556 50.         22.22222222]
+ [21.42857143  7.14285714 50.         21.42857143]]</t>
         </is>
       </c>
     </row>
